--- a/res.xlsx
+++ b/res.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescoverolla/Desktop/UNI/ASSSC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D7ACA35-3044-EB4C-BA60-98BBCB99C310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70832BB9-7F41-C64A-BC3B-E37252989609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18120" yWindow="6820" windowWidth="28040" windowHeight="17440" xr2:uid="{8173C7AF-BEEB-1146-8A2D-8A9248A9A970}"/>
   </bookViews>
@@ -447,7 +447,7 @@
   <dimension ref="A1:Y36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -537,6 +537,9 @@
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="C5">
+        <v>48.489703333333303</v>
+      </c>
     </row>
     <row r="6" spans="1:25" ht="26" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -616,6 +619,9 @@
     <row r="9" spans="1:25" ht="26" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="C9">
+        <v>309.050223783506</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">

--- a/res.xlsx
+++ b/res.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescoverolla/Desktop/UNI/ASSSC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70832BB9-7F41-C64A-BC3B-E37252989609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DBD8E57-BF11-0A4C-B1B6-8E75D3CF529B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18120" yWindow="6820" windowWidth="28040" windowHeight="17440" xr2:uid="{8173C7AF-BEEB-1146-8A2D-8A9248A9A970}"/>
+    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="28300" xr2:uid="{8173C7AF-BEEB-1146-8A2D-8A9248A9A970}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -103,6 +103,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -124,12 +131,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -447,7 +455,7 @@
   <dimension ref="A1:Y36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -532,6 +540,9 @@
       <c r="C4" s="4">
         <v>156.89910442291301</v>
       </c>
+      <c r="F4" s="5">
+        <v>37.798625802207901</v>
+      </c>
     </row>
     <row r="5" spans="1:25" ht="26" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -540,6 +551,9 @@
       <c r="C5">
         <v>48.489703333333303</v>
       </c>
+      <c r="F5">
+        <v>125.00014</v>
+      </c>
     </row>
     <row r="6" spans="1:25" ht="26" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -622,6 +636,9 @@
       </c>
       <c r="C9">
         <v>309.050223783506</v>
+      </c>
+      <c r="F9">
+        <v>3307.0022347928302</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">

--- a/res.xlsx
+++ b/res.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescoverolla/Desktop/UNI/ASSSC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DBD8E57-BF11-0A4C-B1B6-8E75D3CF529B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57BF67F-0AEB-F448-B708-85F219455FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="28300" xr2:uid="{8173C7AF-BEEB-1146-8A2D-8A9248A9A970}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -452,19 +452,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A7FCBD-3C8E-EF4B-9134-4722ACAD4EB9}">
-  <dimension ref="A1:Y36"/>
+  <dimension ref="A1:X36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="43.5" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,32 +487,30 @@
         <v>300</v>
       </c>
       <c r="H1" s="3">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="I1" s="3">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="J1" s="3">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="K1" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L1" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M1" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="N1" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="O1" s="3">
-        <v>900</v>
-      </c>
-      <c r="P1" s="3">
         <v>1000</v>
       </c>
+      <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
@@ -521,19 +519,18 @@
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-    </row>
-    <row r="2" spans="1:25" ht="26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:24" ht="26" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="26" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="26" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -543,8 +540,14 @@
       <c r="F4" s="5">
         <v>37.798625802207901</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" ht="26" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <v>22.250172279648702</v>
+      </c>
+      <c r="H4">
+        <v>137.635071787588</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="26" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -554,8 +557,14 @@
       <c r="F5">
         <v>125.00014</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" ht="26" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <v>149.94499999999999</v>
+      </c>
+      <c r="H5">
+        <v>150.89509999999899</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="26" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -564,7 +573,7 @@
         <v>25</v>
       </c>
       <c r="C6" s="3">
-        <f t="shared" ref="C6:P6" si="0">(C1 / 60) * C35</f>
+        <f t="shared" ref="C6:O6" si="0">(C1 / 60) * C35</f>
         <v>50</v>
       </c>
       <c r="D6" s="3">
@@ -585,52 +594,48 @@
       </c>
       <c r="H6" s="3">
         <f t="shared" si="0"/>
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="I6" s="3">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="J6" s="3">
         <f t="shared" si="0"/>
-        <v>225</v>
+        <v>250.00000000000003</v>
       </c>
       <c r="K6" s="3">
         <f t="shared" si="0"/>
-        <v>250.00000000000003</v>
+        <v>300</v>
       </c>
       <c r="L6" s="3">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="M6" s="3">
         <f t="shared" si="0"/>
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="N6" s="3">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="O6" s="3">
         <f t="shared" si="0"/>
-        <v>450</v>
-      </c>
-      <c r="P6" s="3">
-        <f t="shared" si="0"/>
         <v>500.00000000000006</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="26" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="26" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="26" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -640,8 +645,14 @@
       <c r="F9">
         <v>3307.0022347928302</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G9">
+        <v>6739.0489437759497</v>
+      </c>
+      <c r="H9">
+        <v>1096.34192826139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -687,11 +698,8 @@
       <c r="O35">
         <v>30</v>
       </c>
-      <c r="P35">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>10</v>
       </c>

--- a/res.xlsx
+++ b/res.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescoverolla/Desktop/UNI/ASSSC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57BF67F-0AEB-F448-B708-85F219455FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8300311F-59C3-CF40-8BFE-A727387CAEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="28300" xr2:uid="{8173C7AF-BEEB-1146-8A2D-8A9248A9A970}"/>
   </bookViews>
@@ -452,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A7FCBD-3C8E-EF4B-9134-4722ACAD4EB9}">
-  <dimension ref="A1:X36"/>
+  <dimension ref="A1:W36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -464,7 +464,7 @@
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -490,26 +490,24 @@
         <v>400</v>
       </c>
       <c r="I1" s="3">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="J1" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K1" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L1" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="N1" s="3">
-        <v>900</v>
-      </c>
-      <c r="O1" s="3">
         <v>1000</v>
       </c>
+      <c r="O1" s="3"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
@@ -518,19 +516,18 @@
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-    </row>
-    <row r="2" spans="1:24" ht="26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:23" ht="26" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="26" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="26" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -546,8 +543,20 @@
       <c r="H4">
         <v>137.635071787588</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" ht="26" x14ac:dyDescent="0.3">
+      <c r="I4">
+        <v>194.973372427475</v>
+      </c>
+      <c r="J4">
+        <v>167.29718119900099</v>
+      </c>
+      <c r="K4">
+        <v>136.00652195614299</v>
+      </c>
+      <c r="L4">
+        <v>175.51848410921301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="26" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -563,8 +572,20 @@
       <c r="H5">
         <v>150.89509999999899</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" ht="26" x14ac:dyDescent="0.3">
+      <c r="I5">
+        <v>139.29781666666599</v>
+      </c>
+      <c r="J5">
+        <v>164.67011666666599</v>
+      </c>
+      <c r="K5">
+        <v>200.25066666666601</v>
+      </c>
+      <c r="L5">
+        <v>166.11147333333301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="26" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -573,7 +594,7 @@
         <v>25</v>
       </c>
       <c r="C6" s="3">
-        <f t="shared" ref="C6:O6" si="0">(C1 / 60) * C35</f>
+        <f t="shared" ref="C6:N6" si="0">(C1 / 60) * C35</f>
         <v>50</v>
       </c>
       <c r="D6" s="3">
@@ -598,44 +619,40 @@
       </c>
       <c r="I6" s="3">
         <f t="shared" si="0"/>
-        <v>225</v>
+        <v>250.00000000000003</v>
       </c>
       <c r="J6" s="3">
         <f t="shared" si="0"/>
-        <v>250.00000000000003</v>
+        <v>300</v>
       </c>
       <c r="K6" s="3">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="L6" s="3">
         <f t="shared" si="0"/>
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="M6" s="3">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="N6" s="3">
         <f t="shared" si="0"/>
-        <v>450</v>
-      </c>
-      <c r="O6" s="3">
-        <f t="shared" si="0"/>
         <v>500.00000000000006</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" ht="26" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" ht="26" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" ht="26" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -651,8 +668,20 @@
       <c r="H9">
         <v>1096.34192826139</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I9">
+        <v>714.44533647014498</v>
+      </c>
+      <c r="J9">
+        <v>984.29701855400401</v>
+      </c>
+      <c r="K9">
+        <v>1472.3607646642099</v>
+      </c>
+      <c r="L9">
+        <v>946.40444381899397</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -695,11 +724,8 @@
       <c r="N35">
         <v>30</v>
       </c>
-      <c r="O35">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>10</v>
       </c>

--- a/res.xlsx
+++ b/res.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescoverolla/Desktop/UNI/ASSSC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8300311F-59C3-CF40-8BFE-A727387CAEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E714CA-E4D4-8B4C-BCB4-ACE5E708BFB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="28300" xr2:uid="{8173C7AF-BEEB-1146-8A2D-8A9248A9A970}"/>
   </bookViews>
@@ -455,7 +455,7 @@
   <dimension ref="A1:W36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -555,6 +555,12 @@
       <c r="L4">
         <v>175.51848410921301</v>
       </c>
+      <c r="M4">
+        <v>189.094553674244</v>
+      </c>
+      <c r="N4">
+        <v>217.45468090791999</v>
+      </c>
     </row>
     <row r="5" spans="1:23" ht="26" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -584,6 +590,12 @@
       <c r="L5">
         <v>166.11147333333301</v>
       </c>
+      <c r="M5">
+        <v>156.17406</v>
+      </c>
+      <c r="N5">
+        <v>137.03200666666601</v>
+      </c>
     </row>
     <row r="6" spans="1:23" ht="26" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -679,6 +691,12 @@
       </c>
       <c r="L9">
         <v>946.40444381899397</v>
+      </c>
+      <c r="M9">
+        <v>825.90459093308004</v>
+      </c>
+      <c r="N9">
+        <v>630.16351772483495</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
